--- a/src/test/resources/test_student.xlsx
+++ b/src/test/resources/test_student.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16609\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16609\Documents\Projects\easy-excel\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82835F6C-5B9C-4581-ACB7-12A6233F05DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB5DAF0-EA75-47F9-8544-060F15431386}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9288" xr2:uid="{B595F04A-0E9B-478C-9269-E5A75A7D43D5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,22 @@
   </si>
   <si>
     <t>Luce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Male</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Female</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,60 +432,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A9DAA1-1BAA-492D-9E92-AAF1628F7C84}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/test_student.xlsx
+++ b/src/test/resources/test_student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16609\Documents\Projects\easy-excel\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB5DAF0-EA75-47F9-8544-060F15431386}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0776203A-2A33-4A0C-9DDB-599A6FD89751}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9288" xr2:uid="{B595F04A-0E9B-478C-9269-E5A75A7D43D5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>Female</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,8 +118,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -432,15 +439,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A9DAA1-1BAA-492D-9E92-AAF1628F7C84}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,8 +460,11 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -461,8 +474,11 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="1">
+        <v>33825</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -472,8 +488,11 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
+      <c r="D3" s="1">
+        <v>37712</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -483,8 +502,11 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="1">
+        <v>32573</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -494,8 +516,11 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
+      <c r="D5" s="1">
+        <v>36415</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -504,6 +529,9 @@
       </c>
       <c r="C6" t="s">
         <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>37249</v>
       </c>
     </row>
   </sheetData>
